--- a/BOM/ESP32_BOARD_BOM.xlsx
+++ b/BOM/ESP32_BOARD_BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boris\Desktop\Homework\DiplomnaRabota\PCB\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bobby/Desktop/DiplomnaRabota/PCB/BOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E7E112-E62A-43A6-97D8-B4120EE07AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7874E24-AF88-F04E-A586-00D5DF56B4B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="3135" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16220" yWindow="9200" windowWidth="29060" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="87">
   <si>
     <t>Comment</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Footprint</t>
   </si>
   <si>
-    <t>JLCPCB Part #（optional）</t>
-  </si>
-  <si>
     <t>GRM31CR61A476ME15L</t>
   </si>
   <si>
@@ -284,102 +281,6 @@
   </si>
   <si>
     <t>AP2112K-3.3</t>
-  </si>
-  <si>
-    <t>C94034</t>
-  </si>
-  <si>
-    <t>C77074</t>
-  </si>
-  <si>
-    <t>C14663</t>
-  </si>
-  <si>
-    <t>C60474</t>
-  </si>
-  <si>
-    <t>C15850</t>
-  </si>
-  <si>
-    <t>C15684</t>
-  </si>
-  <si>
-    <t>C76950</t>
-  </si>
-  <si>
-    <t>C2853065</t>
-  </si>
-  <si>
-    <t>C3021085</t>
-  </si>
-  <si>
-    <t>C3194292</t>
-  </si>
-  <si>
-    <t>C97521</t>
-  </si>
-  <si>
-    <t>C2913194</t>
-  </si>
-  <si>
-    <t>C401007</t>
-  </si>
-  <si>
-    <t>C88532</t>
-  </si>
-  <si>
-    <t>C71649</t>
-  </si>
-  <si>
-    <t>C426990</t>
-  </si>
-  <si>
-    <t>C60491</t>
-  </si>
-  <si>
-    <t>C137901</t>
-  </si>
-  <si>
-    <t>C93949</t>
-  </si>
-  <si>
-    <t>C107229</t>
-  </si>
-  <si>
-    <t>C138003</t>
-  </si>
-  <si>
-    <t>C137929</t>
-  </si>
-  <si>
-    <t>C25754</t>
-  </si>
-  <si>
-    <t>C60489</t>
-  </si>
-  <si>
-    <t>C112291</t>
-  </si>
-  <si>
-    <t>C25905</t>
-  </si>
-  <si>
-    <t>C160262</t>
-  </si>
-  <si>
-    <t>C3020560</t>
-  </si>
-  <si>
-    <t>C2828078</t>
-  </si>
-  <si>
-    <t>C725944</t>
-  </si>
-  <si>
-    <t>C381061</t>
-  </si>
-  <si>
-    <t>C221896</t>
   </si>
 </sst>
 </file>
@@ -464,9 +365,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -504,9 +405,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -539,26 +440,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -591,26 +475,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -786,19 +653,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.28515625" customWidth="1"/>
-    <col min="2" max="2" width="58.28515625" customWidth="1"/>
-    <col min="3" max="3" width="50.28515625" customWidth="1"/>
-    <col min="4" max="4" width="38.85546875" customWidth="1"/>
+    <col min="1" max="1" width="34.33203125" customWidth="1"/>
+    <col min="2" max="2" width="58.33203125" customWidth="1"/>
+    <col min="3" max="3" width="50.33203125" customWidth="1"/>
+    <col min="4" max="4" width="38.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -808,456 +675,359 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>30</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>31</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
         <v>63</v>
       </c>
-      <c r="D3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>33</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>64</v>
       </c>
-      <c r="D5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>34</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
         <v>65</v>
       </c>
-      <c r="D6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>38</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>67</v>
       </c>
-      <c r="D10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>39</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>68</v>
       </c>
-      <c r="D11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>40</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>69</v>
       </c>
-      <c r="D12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>41</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>70</v>
       </c>
-      <c r="D13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>84</v>
       </c>
-      <c r="B15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>83</v>
-      </c>
-      <c r="B16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" t="s">
         <v>74</v>
       </c>
-      <c r="D17" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>85</v>
       </c>
-      <c r="B19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" t="s">
         <v>76</v>
       </c>
-      <c r="D20" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" t="s">
-        <v>75</v>
-      </c>
-      <c r="D23" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" t="s">
-        <v>75</v>
-      </c>
-      <c r="D24" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>86</v>
-      </c>
-      <c r="B26" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" t="s">
-        <v>75</v>
-      </c>
-      <c r="D27" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>25</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>56</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>77</v>
       </c>
-      <c r="D28" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>26</v>
       </c>
-      <c r="B29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" t="s">
-        <v>78</v>
-      </c>
-      <c r="D29" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="B31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" t="s">
         <v>79</v>
       </c>
-      <c r="B30" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" t="s">
-        <v>79</v>
-      </c>
-      <c r="D30" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>27</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>59</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>80</v>
       </c>
-      <c r="D31" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>28</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>60</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>81</v>
-      </c>
-      <c r="D32" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" t="s">
-        <v>82</v>
-      </c>
-      <c r="D33" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>
